--- a/biology/Botanique/Cyperus_flavescens/Cyperus_flavescens.xlsx
+++ b/biology/Botanique/Cyperus_flavescens/Cyperus_flavescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycreus flavescens · Souchet jaunâtre
 Cyperus flavescens, le Souchet jaunâtre, est une espèce de plantes à fleurs de la famille des Cyperaceae, à répartition cosmopolite. C'est une herbacée annuelle cespiteuse, à fleurs en épis, poussant de préférence dans les lieux humides.
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée annuelle, cespiteuse. Ses chaumes sont trigonaux, longs de (2-)4 à 30 cm et larges de 0,4 à 2 mm, glabres. Les feuilles sont de une à cinq, les limbes souvent absents, la base du chaume avec une gaine rougeâtre portant une minuscule dent de limbe mesurant 1 à 2 mm ; les feuilles sont longues de (3-)10 à 18 cm et larges de (0,5-)1,5 à 2(−2,6) mm[1].
-Appareil reproducteur
-Les inflorescences sont en épis au nombre de un, deux ou trois, ovoïdes ou plus ou moins digités, longs de 10 à 30 mm et larges de 8 à 26 mm ; il y a de un à quatre, rarement six rayons, longs de 0,5 à 3(−9) cm ; les bractées sont deux ou trois, approximativement horizontales, longues de 1 à 12 cm et larges 0,5 à 2,5 mm. Les épillets, de un à six, sont comprimés, oblongs-lancéolés, longs de 5 à 15 mm et larges de (2-)2,3 à 2,8 mm ; les écailles florales sont au nombre de (4-)8-24, étroitement imbriquées, latéralement jaunes à brun jaunâtre, aux bords brun clair à clairs, médialement vertes, latéralement sans nervures, médialement à deux ou trois nervures, deux fois cannelées à la base, ovales, longues de (1,5-)1,8 à 2,2 mm et larges de 1,8 mm, l'apex obtus. Les fleurs présentent trois étamines ; les anthères mesurent 0,4 mm, aux connecteurs non prolongés ; les styles mesurent 0,5 à 1 mm ; les stigmates 0,5 à 0,8 mm[1].
-Les fruits sont des akènes noir de jais à brun rougeâtre, légèrement stipendiés, obovoïdes, longs de 1 à 1,2 mm et larges de 0,8 mm, l'apex apiculé, la surface présentant un réseau de cellules rectangulaires allongées longitudinalement et des ondulations transversales[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée annuelle, cespiteuse. Ses chaumes sont trigonaux, longs de (2-)4 à 30 cm et larges de 0,4 à 2 mm, glabres. Les feuilles sont de une à cinq, les limbes souvent absents, la base du chaume avec une gaine rougeâtre portant une minuscule dent de limbe mesurant 1 à 2 mm ; les feuilles sont longues de (3-)10 à 18 cm et larges de (0,5-)1,5 à 2(−2,6) mm.
 </t>
         </is>
       </c>
@@ -544,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Souchet jaunâtre pousse typiquement dans les zones d'étiage des lacs et des mares temporaires, où la fluctuation des niveaux d'eau supprime vraisemblablement la concurrence. Il est également présente dans les prairies humides et marécageuses, sur les berges des rivières, les trous d'eau et dans les anciennes rizières[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont en épis au nombre de un, deux ou trois, ovoïdes ou plus ou moins digités, longs de 10 à 30 mm et larges de 8 à 26 mm ; il y a de un à quatre, rarement six rayons, longs de 0,5 à 3(−9) cm ; les bractées sont deux ou trois, approximativement horizontales, longues de 1 à 12 cm et larges 0,5 à 2,5 mm. Les épillets, de un à six, sont comprimés, oblongs-lancéolés, longs de 5 à 15 mm et larges de (2-)2,3 à 2,8 mm ; les écailles florales sont au nombre de (4-)8-24, étroitement imbriquées, latéralement jaunes à brun jaunâtre, aux bords brun clair à clairs, médialement vertes, latéralement sans nervures, médialement à deux ou trois nervures, deux fois cannelées à la base, ovales, longues de (1,5-)1,8 à 2,2 mm et larges de 1,8 mm, l'apex obtus. Les fleurs présentent trois étamines ; les anthères mesurent 0,4 mm, aux connecteurs non prolongés ; les styles mesurent 0,5 à 1 mm ; les stigmates 0,5 à 0,8 mm.
+Les fruits sont des akènes noir de jais à brun rougeâtre, légèrement stipendiés, obovoïdes, longs de 1 à 1,2 mm et larges de 0,8 mm, l'apex apiculé, la surface présentant un réseau de cellules rectangulaires allongées longitudinalement et des ondulations transversales.
 </t>
         </is>
       </c>
@@ -575,23 +596,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Souchet jaunâtre pousse typiquement dans les zones d'étiage des lacs et des mares temporaires, où la fluctuation des niveaux d'eau supprime vraisemblablement la concurrence. Il est également présente dans les prairies humides et marécageuses, sur les berges des rivières, les trous d'eau et dans les anciennes rizières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1753, qui la classe dans le genre Cyperus sous le nom binominal Cyperus flavescens, dans son ouvrage fondateur de la nomenclature botanique moderne Species Plantarum[3]. Elle a été aussi classée dans les genres Pycreus et Chlorocyperus, mais le nom correct reste Cyperus flavescens[4],[5],[6], bien que certaines auteurs préfèrent Pycreus flavescens[7].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Souchet jaunâtre »[4],[2],[8],[6].
-Liste des taxons de rang inférieur
-Liste des sous-espèces et variétés selon GBIF       (6 juillet 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1753, qui la classe dans le genre Cyperus sous le nom binominal Cyperus flavescens, dans son ouvrage fondateur de la nomenclature botanique moderne Species Plantarum. Elle a été aussi classée dans les genres Pycreus et Chlorocyperus, mais le nom correct reste Cyperus flavescens bien que certaines auteurs préfèrent Pycreus flavescens.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Souchet jaunâtre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des taxons de rang inférieur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés selon GBIF       (6 juillet 2021) :
 Cyperus flavescens subsp. flavescens
 Cyperus flavescens subsp. intermedius (Rikli) Lye
 Cyperus flavescens subsp. microglumis (Lye) Lye
 Cyperus flavescens subsp. tanaensis (Kük.) Lye
 Cyperus flavescens var. flavescens
-Cyperus flavescens var. rehmannianus (C.B.Clarke) Kük.
-Synonymes
-Cyperus flavescens a pour synonymes selon Plants of the World online (POWO)                (6 juillet 2021)[5] :
+Cyperus flavescens var. rehmannianus (C.B.Clarke) Kük.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperus_flavescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyperus flavescens a pour synonymes selon Plants of the World online (POWO)                (6 juillet 2021) :
 Chlorocyperus abyssinicus (Hochst. ex A.Rich.) Rikli
 Chlorocyperus flavescens (L.) Rikli
 Chlorocyperus intermedius Rikli
@@ -661,35 +786,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cyperus_flavescens</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyperus_flavescens</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est classée « en danger critique d'extinction » (CR) en Alsace, Auvergne, Basse-Normandie, Centre-Val de Loire, Île-de-France, Lorraine et Pays de la Loire ; « en danger » (EN) en Bourgogne, Bretagne, Franche-Comté, Limousin, Picardie, Poitou-Charentes et Rhône-Alpes. Malgré tout, elle est de « préoccupation mineure » (CR) à l'échelle nationale[6].
-L'espèce est classée comme éteinte en Belgique et aux Pays-Bas, en danger en Autriche, et vulnérable en Croatie et en Suisse, alors qu'aucune autre mesure de conservation n'est en place ou apparemment nécessaire. Le déclin de cette espèce dans ces cinq pays pourrait être les premiers signes d'un problème plus large. Une conservation ex situ a lieu en Europe. Aucune mesure de conservation n'est proposée pour le moment au niveau mondial[2].
-Malgré tout, cette espèce est évaluée comme étant de préoccupation mineure à l'échelle mondiale par l'Union internationale pour la conservation de la nature (UICN), car elle est très répandue, sans preuve de déclin, et n'est pas exposée à des menaces significatives connues[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est classée « en danger critique d'extinction » (CR) en Alsace, Auvergne, Basse-Normandie, Centre-Val de Loire, Île-de-France, Lorraine et Pays de la Loire ; « en danger » (EN) en Bourgogne, Bretagne, Franche-Comté, Limousin, Picardie, Poitou-Charentes et Rhône-Alpes. Malgré tout, elle est de « préoccupation mineure » (CR) à l'échelle nationale.
+L'espèce est classée comme éteinte en Belgique et aux Pays-Bas, en danger en Autriche, et vulnérable en Croatie et en Suisse, alors qu'aucune autre mesure de conservation n'est en place ou apparemment nécessaire. Le déclin de cette espèce dans ces cinq pays pourrait être les premiers signes d'un problème plus large. Une conservation ex situ a lieu en Europe. Aucune mesure de conservation n'est proposée pour le moment au niveau mondial.
+Malgré tout, cette espèce est évaluée comme étant de préoccupation mineure à l'échelle mondiale par l'Union internationale pour la conservation de la nature (UICN), car elle est très répandue, sans preuve de déclin, et n'est pas exposée à des menaces significatives connues.
 </t>
         </is>
       </c>
